--- a/tests/testing_files/comma_not_in_list_assignment_error.xlsx
+++ b/tests/testing_files/comma_not_in_list_assignment_error.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D71974E-BADA-456F-945E-B86A1E1EBFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E703C2-5AC1-49D4-8B4D-D125CB546886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3090" windowWidth="23565" windowHeight="12015" xr2:uid="{74622A20-6192-4670-9736-88E18B0F4086}"/>
+    <workbookView xWindow="3360" yWindow="2220" windowWidth="23640" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>#tags</t>
+  </si>
   <si>
     <t>#ignore</t>
   </si>
@@ -43,7 +31,7 @@
     <t>Slice #</t>
   </si>
   <si>
-    <t/>
+    <t>Parent Subject ID</t>
   </si>
   <si>
     <t>01</t>
@@ -58,21 +46,12 @@
     <t>02_A1_Spleen_naive_0days_170427_UKy_GCH_rep2</t>
   </si>
   <si>
-    <t>Parent Subject ID</t>
-  </si>
-  <si>
     <t>#tags;#sample.asdf=qwer;#.asdf%attribute=zxcv;#.qwer=asdf;#%attribute=fghj</t>
   </si>
   <si>
-    <t>#tags</t>
-  </si>
-  <si>
     <t>#sample.id</t>
   </si>
   <si>
-    <t>#sample%child.id=-protein;#.protein_weight;#%units=mg;*#protocol.id=protein_extraction</t>
-  </si>
-  <si>
     <t>Parent Sample ID</t>
   </si>
   <si>
@@ -94,7 +73,10 @@
     <t>analytical_box2</t>
   </si>
   <si>
-    <t>#sample.id;*#protocol.id,asdf</t>
+    <t>#sample.id;*#.protocol.id,asdf</t>
+  </si>
+  <si>
+    <t>#sample%child.id=-protein;#.protein_weight;#%units=mg;*#.protocol.id=protein_extraction</t>
   </si>
 </sst>
 </file>
@@ -144,8 +126,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B24960FB-4346-4AF2-9B12-A33B8A3AD87B}"/>
-    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{D56F6827-3D3C-4527-81F8-0E7EBB9F2EBE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6D9B41-B91D-42D6-AA64-646CAC4C9AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,48 +454,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -521,64 +497,58 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>0</v>
